--- a/Bases_de_Dados/FootyStats/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Brazil Serie A_2025.xlsx
@@ -59256,7 +59256,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>['26', '45+4', '49']</t>
+          <t>['26', '45+5', '49']</t>
         </is>
       </c>
       <c r="P270" t="inlineStr">
@@ -66337,13 +66337,13 @@
         <v>2</v>
       </c>
       <c r="AW302" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX302" t="n">
         <v>2</v>
       </c>
       <c r="AY302" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ302" t="n">
         <v>4</v>
@@ -70156,7 +70156,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>['26']</t>
+          <t>['27']</t>
         </is>
       </c>
       <c r="P320" t="inlineStr">
@@ -71554,13 +71554,13 @@
         <v>0.89</v>
       </c>
       <c r="AR326" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="AS326" t="n">
         <v>1.13</v>
       </c>
       <c r="AT326" t="n">
-        <v>3.01</v>
+        <v>3</v>
       </c>
       <c r="AU326" t="n">
         <v>4</v>
@@ -82151,7 +82151,7 @@
       </c>
       <c r="P375" t="inlineStr">
         <is>
-          <t>['88']</t>
+          <t>['87']</t>
         </is>
       </c>
       <c r="Q375" t="n">
@@ -82800,7 +82800,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>['50', '77', '81']</t>
+          <t>['50', '78', '81']</t>
         </is>
       </c>
       <c r="P378" t="inlineStr">
